--- a/Bank_EMI.xlsx
+++ b/Bank_EMI.xlsx
@@ -42,7 +42,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 107858 out standing 
@@ -69,7 +69,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 due 236948.15
@@ -203,7 +203,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -633,9 +633,12 @@
       <c r="E2" s="9">
         <v>21830</v>
       </c>
+      <c r="F2">
+        <v>21830</v>
+      </c>
       <c r="S2">
         <f>SUM(D2:R2)</f>
-        <v>43660</v>
+        <v>65490</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -654,9 +657,12 @@
       <c r="E3" s="9">
         <v>31701</v>
       </c>
+      <c r="F3">
+        <v>31701</v>
+      </c>
       <c r="S3">
         <f t="shared" ref="S3:S11" si="0">SUM(D3:R3)</f>
-        <v>63402</v>
+        <v>95103</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -675,9 +681,12 @@
       <c r="E4" s="9">
         <v>21737</v>
       </c>
+      <c r="F4">
+        <v>21701</v>
+      </c>
       <c r="S4">
         <f t="shared" si="0"/>
-        <v>43474</v>
+        <v>65175</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -696,9 +705,12 @@
       <c r="E5" s="9">
         <v>6585</v>
       </c>
+      <c r="F5">
+        <v>6851</v>
+      </c>
       <c r="S5">
         <f t="shared" si="0"/>
-        <v>13170</v>
+        <v>20021</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="29" hidden="1" x14ac:dyDescent="0.35">
@@ -848,7 +860,7 @@
       </c>
       <c r="F12" s="2">
         <f t="shared" si="1"/>
-        <v>6851</v>
+        <v>88934</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="1"/>
@@ -900,7 +912,7 @@
       </c>
       <c r="S12" s="2">
         <f t="shared" si="1"/>
-        <v>251440</v>
+        <v>333523</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="43.5" x14ac:dyDescent="0.35">
@@ -986,8 +998,8 @@
         <v>18000</v>
       </c>
       <c r="F21" s="10">
-        <f>35580.75+56900</f>
-        <v>92480.75</v>
+        <f>35580+56900</f>
+        <v>92480</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
